--- a/myworkbook.xlsx
+++ b/myworkbook.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <x:si>
-    <x:t>Sunny day</x:t>
+    <x:t>Mohamed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -67,13 +67,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -371,26 +367,24 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C1" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
-    <x:mergeCell ref="A1:B2"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/myworkbook.xlsx
+++ b/myworkbook.xlsx
@@ -367,7 +367,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C1"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -381,6 +381,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
         <x:v>23</x:v>
       </x:c>
     </x:row>
